--- a/data/menifests/menifest_product-1.xlsx
+++ b/data/menifests/menifest_product-1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
   <si>
     <t>ncurses</t>
   </si>
@@ -139,6 +139,159 @@
   </si>
   <si>
     <t>5.5.1</t>
+  </si>
+  <si>
+    <t>harfbuzz</t>
+  </si>
+  <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>gnutls</t>
+  </si>
+  <si>
+    <t>3.3.17.1</t>
+  </si>
+  <si>
+    <t>libgcrypt</t>
+  </si>
+  <si>
+    <t>1.6.5</t>
+  </si>
+  <si>
+    <t>readline</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>openssh</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>glibc-sourcery</t>
+  </si>
+  <si>
+    <t>openssl</t>
+  </si>
+  <si>
+    <t>curl</t>
+  </si>
+  <si>
+    <t>7.50.1</t>
+  </si>
+  <si>
+    <t>systemd</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>libpng</t>
+  </si>
+  <si>
+    <t>1.6.20</t>
+  </si>
+  <si>
+    <t>zlib</t>
+  </si>
+  <si>
+    <t>1.2.8</t>
+  </si>
+  <si>
+    <t>libsamplerate</t>
+  </si>
+  <si>
+    <t>0.1.8</t>
+  </si>
+  <si>
+    <t>libxml2</t>
+  </si>
+  <si>
+    <t>2.9.4</t>
+  </si>
+  <si>
+    <t>gdk-pixbuf</t>
+  </si>
+  <si>
+    <t>2.30.8</t>
+  </si>
+  <si>
+    <t>util-linux</t>
+  </si>
+  <si>
+    <t>2.26.2</t>
+  </si>
+  <si>
+    <t>libvorbis</t>
+  </si>
+  <si>
+    <t>1.3.5</t>
+  </si>
+  <si>
+    <t>busybox</t>
+  </si>
+  <si>
+    <t>1.23.2</t>
+  </si>
+  <si>
+    <t>bzip2</t>
+  </si>
+  <si>
+    <t>1.0.6</t>
+  </si>
+  <si>
+    <t>dosfstools</t>
+  </si>
+  <si>
+    <t>3.0.28</t>
+  </si>
+  <si>
+    <t>e2fsprogs</t>
+  </si>
+  <si>
+    <t>1.42.9</t>
+  </si>
+  <si>
+    <t>cpio</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>grep</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>perl</t>
+  </si>
+  <si>
+    <t>5.22.1</t>
+  </si>
+  <si>
+    <t>tar</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>2.7.9</t>
+  </si>
+  <si>
+    <t>1.0.2h</t>
+  </si>
+  <si>
+    <t>bind</t>
+  </si>
+  <si>
+    <t>9.10.4</t>
   </si>
 </sst>
 </file>
@@ -952,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1082,62 +1235,298 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
       <c r="B17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="2">
         <v>0.12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A35" r:id="rId1" display="https://nvd.nist.gov/products/cpe/search/results?keyword=cpe%3a2.3%3aa%3agnome%3agdk-pixbuf%3a*%3a*%3a*%3a*%3a*%3a*%3a*%3a*&amp;status=FINAL,DEPRECATED&amp;orderBy=CPEURI&amp;namingFormat=2.3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>